--- a/data/world_bank.xlsx
+++ b/data/world_bank.xlsx
@@ -15528,6 +15528,9 @@
       <c r="D292">
         <v>2017</v>
       </c>
+      <c r="E292">
+        <v>702.396632469693</v>
+      </c>
       <c r="F292">
         <v>8</v>
       </c>
@@ -15581,6 +15584,9 @@
       <c r="D293">
         <v>2018</v>
       </c>
+      <c r="E293">
+        <v>702.396632469693</v>
+      </c>
       <c r="F293">
         <v>8</v>
       </c>
@@ -15634,6 +15640,9 @@
       <c r="D294">
         <v>2019</v>
       </c>
+      <c r="E294">
+        <v>702.396632469693</v>
+      </c>
       <c r="F294">
         <v>8</v>
       </c>
@@ -15687,6 +15696,9 @@
       <c r="D295">
         <v>2020</v>
       </c>
+      <c r="E295">
+        <v>702.396632469693</v>
+      </c>
       <c r="F295">
         <v>8</v>
       </c>
@@ -15740,6 +15752,9 @@
       <c r="D296">
         <v>2021</v>
       </c>
+      <c r="E296">
+        <v>702.396632469693</v>
+      </c>
       <c r="F296">
         <v>8</v>
       </c>
@@ -17574,6 +17589,9 @@
       <c r="D331">
         <v>2021</v>
       </c>
+      <c r="E331">
+        <v>52726.7422373484</v>
+      </c>
       <c r="F331">
         <v>9</v>
       </c>
@@ -29648,6 +29666,9 @@
       <c r="D566">
         <v>2021</v>
       </c>
+      <c r="E566">
+        <v>167805.956932057</v>
+      </c>
       <c r="F566">
         <v>9</v>
       </c>
@@ -36774,6 +36795,9 @@
       <c r="D706">
         <v>2021</v>
       </c>
+      <c r="E706">
+        <v>32428.5824862295</v>
+      </c>
       <c r="F706">
         <v>0</v>
       </c>
@@ -46491,6 +46515,9 @@
       </c>
       <c r="D891">
         <v>2021</v>
+      </c>
+      <c r="E891">
+        <v>1071.77776475545</v>
       </c>
       <c r="F891">
         <v>8</v>
